--- a/2024/shuffle-architecute/Teste10/content/results/metrics_6_8.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_6_8.xlsx
@@ -488,926 +488,926 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_12</t>
+          <t>model_6_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9646994837805781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7573266355612679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9959293514179391</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.9901822721191754</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9957048979416142</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.1481487154960632</v>
       </c>
       <c r="H2" t="n">
-        <v>1.300245046615601</v>
+        <v>1.622757911682129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.0221378356218338</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.01091091427952051</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.01652435585856438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_22</t>
+          <t>model_6_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9706490109868743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7557606799348388</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9950994824131412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.9832229052991628</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9941131917579406</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.1231798157095909</v>
       </c>
       <c r="H3" t="n">
-        <v>1.300245046615601</v>
+        <v>1.633229494094849</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.02665099874138832</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.01864519342780113</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.02264805324375629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_21</t>
+          <t>model_6_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.975250537161664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7539833485989612</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9942081314725946</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.9733902093609589</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9920629985639097</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.1038682013750076</v>
       </c>
       <c r="H4" t="n">
-        <v>1.300245046615601</v>
+        <v>1.645114421844482</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.03149852901697159</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.029572743922472</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.03053567185997963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_20</t>
+          <t>model_6_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9787860083691245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7520650387929526</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9932966440861477</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.9616719066234116</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9897262577823315</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.08903057873249054</v>
       </c>
       <c r="H5" t="n">
-        <v>1.300245046615601</v>
+        <v>1.657942295074463</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.03645556420087814</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.04259585589170456</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.03952571004629135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_19</t>
+          <t>model_6_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9814783653811565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7500630172991678</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9923915295679637</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.9487973053199551</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9872270176304279</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.07773133367300034</v>
       </c>
       <c r="H6" t="n">
-        <v>1.300245046615601</v>
+        <v>1.671329736709595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.04137794300913811</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.05690402165055275</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.04914092272520065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_18</t>
+          <t>model_6_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9835045882755238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7480234722902745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9915095317671635</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.9353077835088872</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9846552785045334</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.06922771781682968</v>
       </c>
       <c r="H7" t="n">
-        <v>1.300245046615601</v>
+        <v>1.684968233108521</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.04617460444569588</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.07189558446407318</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.05903506278991699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_17</t>
+          <t>model_6_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9850056007803475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7459832682759461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9906606995020205</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.9216062955130333</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9820763542694664</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.06292828172445297</v>
       </c>
       <c r="H8" t="n">
-        <v>1.300245046615601</v>
+        <v>1.69861114025116</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.05079089850187302</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.08712270855903625</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.06895684450864792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_16</t>
+          <t>model_6_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9860937993526097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7439713752655851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.989850909146513</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.9079902233063084</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9795374215891639</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.05836134403944016</v>
       </c>
       <c r="H9" t="n">
-        <v>1.300245046615601</v>
+        <v>1.712064623832703</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.05519486591219902</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.1022548973560333</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.07872476428747177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_15</t>
+          <t>model_6_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9868589314116256</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7420101580559135</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9890833415691728</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.8946767070089037</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9770719327905849</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.05515025183558464</v>
       </c>
       <c r="H10" t="n">
-        <v>1.300245046615601</v>
+        <v>1.725179433822632</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.05936921387910843</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.1170508563518524</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.08821012824773788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_14</t>
+          <t>model_6_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.987372653093578</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7401164948383092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9883594151416177</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.8818209895352559</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9747034863406784</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.05299427360296249</v>
       </c>
       <c r="H11" t="n">
-        <v>1.300245046615601</v>
+        <v>1.737842202186584</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.06330621242523193</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.1313380300998688</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.09732215106487274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_13</t>
+          <t>model_6_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9876921445056969</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7383026981097354</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9876793356197791</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.8695305749162634</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9724476606877839</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.05165343731641769</v>
       </c>
       <c r="H12" t="n">
-        <v>1.300245046615601</v>
+        <v>1.749971151351929</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.06700476258993149</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.1449969559907913</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.1060008853673935</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_23</t>
+          <t>model_6_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9878629706538472</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7365772472249137</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9870426999686306</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.8578744395122416</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9703141675733489</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.05093651637434959</v>
       </c>
       <c r="H13" t="n">
-        <v>1.300245046615601</v>
+        <v>1.76150918006897</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.07046704739332199</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.1579509973526001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.1142089739441872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_24</t>
+          <t>model_6_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.987921276410849</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7349456132912914</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9864484900259685</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.846894029931877</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9683082212849946</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.05069181323051453</v>
       </c>
       <c r="H14" t="n">
-        <v>1.300245046615601</v>
+        <v>1.772419929504395</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.07369859516620636</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.1701540499925613</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.1219263672828674</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_10</t>
+          <t>model_6_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9878958130420097</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7334106219110862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9858953807509967</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.8366087419645382</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9664317704490626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.0507986843585968</v>
       </c>
       <c r="H15" t="n">
-        <v>1.300245046615601</v>
+        <v>1.782684326171875</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.07670663297176361</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.1815845817327499</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.129145547747612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_9</t>
+          <t>model_6_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9961238065497987</v>
+        <v>0.9878091747335199</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8055564303463539</v>
+        <v>0.7319731351903358</v>
       </c>
       <c r="D16" t="n">
-        <v>0.862188032373471</v>
+        <v>0.9853818863855316</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8545300176078177</v>
+        <v>0.8270196208331679</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9070143125874759</v>
+        <v>0.9646838074397095</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01626755483448505</v>
+        <v>0.05116228759288788</v>
       </c>
       <c r="H16" t="n">
-        <v>1.300245046615601</v>
+        <v>1.792297005653381</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08102499693632126</v>
+        <v>0.07949922233819962</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02064719796180725</v>
+        <v>0.1922414302825928</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05083608627319336</v>
+        <v>0.1358703970909119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_8</t>
+          <t>model_6_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9961238065497987</v>
+        <v>0.9876791636912242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8055564303029021</v>
+        <v>0.7306324088371861</v>
       </c>
       <c r="D17" t="n">
-        <v>0.862188032373471</v>
+        <v>0.9849061874066706</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8545300176078177</v>
+        <v>0.8181169962319923</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9070143125874759</v>
+        <v>0.9630617695300214</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01626755483448505</v>
+        <v>0.0517079159617424</v>
       </c>
       <c r="H17" t="n">
-        <v>1.300245046615601</v>
+        <v>1.801262259483337</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08102499693632126</v>
+        <v>0.08208626508712769</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02064719796180725</v>
+        <v>0.2021353542804718</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05083608627319336</v>
+        <v>0.1421108096837997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_11</t>
+          <t>model_6_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9961238078890496</v>
+        <v>0.9875196670995005</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8055564316619641</v>
+        <v>0.7293863707789707</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8621880957848554</v>
+        <v>0.9844665427236514</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8545296809136432</v>
+        <v>0.8098806719004347</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9070142799812698</v>
+        <v>0.9615614261883468</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01626754924654961</v>
+        <v>0.05237728729844093</v>
       </c>
       <c r="H18" t="n">
-        <v>1.300245046615601</v>
+        <v>1.809594631195068</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08102495223283768</v>
+        <v>0.08447723090648651</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02064724452793598</v>
+        <v>0.2112887799739838</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05083610117435455</v>
+        <v>0.1478830128908157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_7</t>
+          <t>model_6_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9961238139138716</v>
+        <v>0.9873414080360997</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8055563761141761</v>
+        <v>0.728232038865299</v>
       </c>
       <c r="D19" t="n">
-        <v>0.862188081033417</v>
+        <v>0.9840609577968745</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8545310129266498</v>
+        <v>0.8022843180735119</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9070144408562979</v>
+        <v>0.9601775919831068</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01626752316951752</v>
+        <v>0.05312540382146835</v>
       </c>
       <c r="H19" t="n">
-        <v>1.300245404243469</v>
+        <v>1.817313671112061</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08102495968341827</v>
+        <v>0.08668296784162521</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02064705453813076</v>
+        <v>0.2197309732437134</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05083601176738739</v>
+        <v>0.1532069593667984</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_6</t>
+          <t>model_6_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.996123811562625</v>
+        <v>0.9871526803395869</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8055563701584446</v>
+        <v>0.7271657750454789</v>
       </c>
       <c r="D20" t="n">
-        <v>0.862187857732281</v>
+        <v>0.9836877002692875</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8545318249296526</v>
+        <v>0.7952969788746685</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9070144339624144</v>
+        <v>0.9589045424564652</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01626753248274326</v>
+        <v>0.05391745269298553</v>
       </c>
       <c r="H20" t="n">
-        <v>1.300245404243469</v>
+        <v>1.824443817138672</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08102509379386902</v>
+        <v>0.08871288597583771</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02064694091677666</v>
+        <v>0.227496325969696</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05083601921796799</v>
+        <v>0.1581047177314758</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_5</t>
+          <t>model_6_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9961238140002813</v>
+        <v>0.9869597347610272</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8055563735923335</v>
+        <v>0.7261833739779989</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8621879701501218</v>
+        <v>0.9833446036670797</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8545319278653868</v>
+        <v>0.7888852501603714</v>
       </c>
       <c r="F21" t="n">
-        <v>0.907014507772218</v>
+        <v>0.957736037919026</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01626752316951752</v>
+        <v>0.05472720041871071</v>
       </c>
       <c r="H21" t="n">
-        <v>1.300245404243469</v>
+        <v>1.831013202667236</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08102502673864365</v>
+        <v>0.09057879447937012</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02064692601561546</v>
+        <v>0.2346220016479492</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05083597451448441</v>
+        <v>0.1626002490520477</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_4</t>
+          <t>model_6_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9961238047564125</v>
+        <v>0.9867672434851555</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8055563604930552</v>
+        <v>0.7252803368096499</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8621876532912055</v>
+        <v>0.9830298947046363</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8545316108561337</v>
+        <v>0.7830137490782502</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9070143122680681</v>
+        <v>0.9566655365392638</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0162675604224205</v>
+        <v>0.05553504452109337</v>
       </c>
       <c r="H22" t="n">
-        <v>1.300245523452759</v>
+        <v>1.837051630020142</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08102521300315857</v>
+        <v>0.09229031205177307</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02064697071909904</v>
+        <v>0.2411472797393799</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05083608254790306</v>
+        <v>0.1667187511920929</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_3</t>
+          <t>model_6_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9961238058159703</v>
+        <v>0.9865786734153041</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8055563483367112</v>
+        <v>0.7244519370050811</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8621876058192948</v>
+        <v>0.9827417230341966</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8545316489956687</v>
+        <v>0.7776471321919373</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9070142919058252</v>
+        <v>0.9556866959044892</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0162675566971302</v>
+        <v>0.05632643774151802</v>
       </c>
       <c r="H23" t="n">
-        <v>1.300245523452759</v>
+        <v>1.842591166496277</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08102524280548096</v>
+        <v>0.09385749697685242</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02064696326851845</v>
+        <v>0.2471114695072174</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05083609372377396</v>
+        <v>0.1704846024513245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_2</t>
+          <t>model_6_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9961238060200553</v>
+        <v>0.986396460094969</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8055563372982448</v>
+        <v>0.7236934675083596</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8621875977010535</v>
+        <v>0.9824781083298455</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8545321534217765</v>
+        <v>0.7727498801202938</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9070142931834561</v>
+        <v>0.9547930569100254</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0162675566971302</v>
+        <v>0.05709114670753479</v>
       </c>
       <c r="H24" t="n">
-        <v>1.300245761871338</v>
+        <v>1.847663164138794</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08102524280548096</v>
+        <v>0.0952911451458931</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02064689248800278</v>
+        <v>0.2525539994239807</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05083609372377396</v>
+        <v>0.1739226579666138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_1</t>
+          <t>model_6_8_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9961237854299271</v>
+        <v>0.9862222990769789</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8055559838704636</v>
+        <v>0.723000200587952</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8621853793916299</v>
+        <v>0.9822374187578196</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8545367847096101</v>
+        <v>0.7682873238559919</v>
       </c>
       <c r="F25" t="n">
-        <v>0.907013715188546</v>
+        <v>0.9539784161128845</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01626764237880707</v>
+        <v>0.05782205983996391</v>
       </c>
       <c r="H25" t="n">
-        <v>1.300248146057129</v>
+        <v>1.852298855781555</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08102654665708542</v>
+        <v>0.09660010784864426</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02064623683691025</v>
+        <v>0.2575134634971619</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05083641037344933</v>
+        <v>0.1770567744970322</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_0</t>
+          <t>model_6_8_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9961237886742373</v>
+        <v>0.9860572632171506</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8055559376364252</v>
+        <v>0.7223674767048305</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8621852272241078</v>
+        <v>0.9820178108203264</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8545383299759306</v>
+        <v>0.7642267387027868</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9070138521612288</v>
+        <v>0.9532367033860164</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01626762934029102</v>
+        <v>0.05851468071341515</v>
       </c>
       <c r="H26" t="n">
-        <v>1.300248384475708</v>
+        <v>1.856529951095581</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08102663606405258</v>
+        <v>0.09779442846775055</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02064601704478264</v>
+        <v>0.2620261907577515</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05083633214235306</v>
+        <v>0.179910346865654</v>
       </c>
     </row>
   </sheetData>
